--- a/Datos/Database by set/Set with text box/Xlsx sets/Ixalan Tokens (TXLN).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Ixalan Tokens (TXLN).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,343 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dinosaur</t>
+          <t>('Dinosaur', ['Token Creature — Dinosaur', 'Trample (This creature can deal excess combat damage to the player or planeswalker it’s attacking.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Dinosaur</t>
+          <t>('Illusion', ['Token Creature — Illusion', 'When this creature becomes the target of a spell, sacrifice it.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trample (This creature can deal excess combat damage to the player or planeswalker it’s attacking.)</t>
+          <t>('Ixalan Checklist', ['Card', '(You can mark this card to represent a double-faced card in your library or hand.)', '☐ Legion’s Landing {W}', '☐ Search for Azcanta {1}{U}', '☐ Arguel’s Blood Fast {1}{B}', '☐ Vance’s Blasting Cannons {3}{R}', '☐ Growing Rites of Itlimoc {2}{G}', '☐ Conqueror’s Galleon {4}', '☐ Dowsing Dagger {2}', '☐ Primal Amulet {4}', '☐ Thaumatic Compass {2}', '☐ Treasure Map {2}'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Merfolk', ['Token Creature — Merfolk', 'Hexproof (This creature can’t be the target of spells or abilities your opponents control.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Illusion</t>
+          <t>('Pirate', ['Token Creature — Pirate', 'Menace (This creature can’t be blocked except by two or more creatures.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Illusion</t>
+          <t>('Plant', ['Token Creature — Plant', 'Defender (This creature can’t attack.)', '0/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>When this creature becomes the target of a spell, sacrifice it.</t>
+          <t>('Treasure', ['Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ixalan Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>(You can mark this card to represent a double-faced card in your library or hand.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>☐ Legion’s Landing {W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>☐ Search for Azcanta {1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>☐ Arguel’s Blood Fast {1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>☐ Vance’s Blasting Cannons {3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>☐ Growing Rites of Itlimoc {2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>☐ Conqueror’s Galleon {4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>☐ Dowsing Dagger {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>☐ Primal Amulet {4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>☐ Thaumatic Compass {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>☐ Treasure Map {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Merfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Creature — Merfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Hexproof (This creature can’t be the target of spells or abilities your opponents control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Pirate</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Pirate</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Menace (This creature can’t be blocked except by two or more creatures.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Token Creature — Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Defender (This creature can’t attack.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>0/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Token Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Lifelink (Damage dealt by this creature also causes you to gain that much life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Vampire', ['Token Creature — Vampire', 'Lifelink (Damage dealt by this creature also causes you to gain that much life.)', '1/1'])</t>
         </is>
       </c>
     </row>
